--- a/biology/Zoologie/Charaxes_marmax/Charaxes_marmax.xlsx
+++ b/biology/Zoologie/Charaxes_marmax/Charaxes_marmax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases marmax est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,12 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes marmax est un grand papillon au dessus jaune orangé tirant sur le roux avec aux ailes antérieures une ligne marginale de taches marron et aux postérieures une ligne submarginale de taches marron pupillées de blanc.
 Le dessous est jaune avec des bandes plus foncées et d'autres plus claires.
-Chenille
-La chenille est verte avec les paires de cornes des Charaxes.
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est multivoltin entre avril et décembre et hibernerait soit au stade de chenille soit à celui de chrysalide[1].
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Euphorbiaceae dont Croton tiglium[1].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte avec les paires de cornes des Charaxes.
 </t>
         </is>
       </c>
@@ -575,14 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Asie du sud-est, en Inde, dans toute la péninsule indochinoise, (Thaïlande et Laos pour Charaxes marmax marmax) et en Malaisie[2].
-Biotope
-Il réside dans les boisements de sa plante hôte et dans les jardins où elle est cultivée comme arbuste ornemental.
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est multivoltin entre avril et décembre et hibernerait soit au stade de chenille soit à celui de chrysalide.
 </t>
         </is>
       </c>
@@ -608,21 +624,199 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Euphorbiaceae dont Croton tiglium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du sud-est, en Inde, dans toute la péninsule indochinoise, (Thaïlande et Laos pour Charaxes marmax marmax) et en Malaisie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les boisements de sa plante hôte et dans les jardins où elle est cultivée comme arbuste ornemental.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Charaxes marmax a été décrite par John Obadiah Westwood en 1847[2].
-Sous-espèces
-Charaxes marmax marmax présent en Inde et Birmanie.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Charaxes marmax a été décrite par John Obadiah Westwood en 1847.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Charaxes marmax marmax présent en Inde et Birmanie.
 Charaxes marmax philopator Fruhstorfer, 1914; présent dans toute l'Indochine.
-Charaxes marmax philosarcus Fruhstorfer, 1914; présent en Malaisie[2].
-Noms vernaculaires
-Charaxes marmax se nomme Yellow Rajah en anglais, et Charaxes marmax marmax Sylhet Yellow Rajah[2],[3].
+Charaxes marmax philosarcus Fruhstorfer, 1914; présent en Malaisie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_marmax</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes marmax se nomme Yellow Rajah en anglais, et Charaxes marmax marmax Sylhet Yellow Rajah,.
 Sur les autres projets Wikimedia :
 Charaxes marmax, sur Wikimedia CommonsCharaxes marmax, sur Wikispecies
-Protection</t>
+</t>
         </is>
       </c>
     </row>
